--- a/Report/ECE 3130 Project Block Diagram Spreadsheet.xlsx
+++ b/Report/ECE 3130 Project Block Diagram Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tennesseetechuniversity-my.sharepoint.com/personal/clwilson47_tntech_edu/Documents/ECE 3130 - Microcomp/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tennesseetechuniversity-my.sharepoint.com/personal/clwilson47_tntech_edu/Documents/ECE 3130 - Microcomp/Project/Project Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{170BBFF8-ACCA-4FFC-9C63-3BBFF8D2404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3F2C1D3-70A4-412A-8BAB-23D36103F9B3}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="8_{170BBFF8-ACCA-4FFC-9C63-3BBFF8D2404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B7C9AD6-81E3-4120-997D-992C367DF9C6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EA45C2D-A7E7-487B-A87F-8051FC36B03D}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{1EA45C2D-A7E7-487B-A87F-8051FC36B03D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>Frequency</t>
   </si>
@@ -66,13 +66,223 @@
   </si>
   <si>
     <t>Input Buttons (Keypad)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>(Note: C3 and C5 repeat because we are using octaves)</t>
+  </si>
+  <si>
+    <t>SW2 Adjusts the Octaves Used</t>
+  </si>
+  <si>
+    <t>Row 1</t>
+  </si>
+  <si>
+    <t>Row 2</t>
+  </si>
+  <si>
+    <t>Row 3</t>
+  </si>
+  <si>
+    <t>By cycling through a matrix in our code</t>
+  </si>
+  <si>
+    <t>External LEDs</t>
+  </si>
+  <si>
+    <t>Breadboard Position</t>
+  </si>
+  <si>
+    <t>Selected Octave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Block </t>
+  </si>
+  <si>
+    <t>CN7</t>
+  </si>
+  <si>
+    <t>CN8</t>
+  </si>
+  <si>
+    <t>CN9</t>
+  </si>
+  <si>
+    <t>CN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Connection </t>
+  </si>
+  <si>
+    <t>PC_3</t>
+  </si>
+  <si>
+    <t>PC_2</t>
+  </si>
+  <si>
+    <t>PC_15</t>
+  </si>
+  <si>
+    <t>PC_14</t>
+  </si>
+  <si>
+    <t>PA_14</t>
+  </si>
+  <si>
+    <t>PC_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Buzzers </t>
+  </si>
+  <si>
+    <t>Breadboard Number</t>
+  </si>
+  <si>
+    <t>Buzzer Number</t>
+  </si>
+  <si>
+    <t>Pin Block</t>
+  </si>
+  <si>
+    <t>PC_9</t>
+  </si>
+  <si>
+    <t>PA_1</t>
+  </si>
+  <si>
+    <t>PB_6</t>
+  </si>
+  <si>
+    <t>PA_0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +296,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +322,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,15 +368,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,6 +405,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,93 +728,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE8B465-3894-4FDA-9F0C-490F52D2FC28}">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>261.63</v>
-      </c>
-      <c r="C3">
-        <v>293.66000000000003</v>
-      </c>
-      <c r="D3">
-        <v>329.63</v>
-      </c>
-      <c r="E3">
-        <v>349.23</v>
-      </c>
-      <c r="F3">
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>131</v>
+      </c>
+      <c r="D5">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>165</v>
+      </c>
+      <c r="F5">
+        <v>175</v>
+      </c>
+      <c r="G5">
+        <v>196</v>
+      </c>
+      <c r="H5">
+        <v>220</v>
+      </c>
+      <c r="I5">
+        <v>247</v>
+      </c>
+      <c r="J5">
+        <v>262</v>
+      </c>
+      <c r="K5">
+        <v>294</v>
+      </c>
+      <c r="L5">
+        <v>330</v>
+      </c>
+      <c r="M5">
+        <v>349</v>
+      </c>
+      <c r="N5">
         <v>392</v>
       </c>
-      <c r="G3">
+      <c r="O5">
         <v>440</v>
       </c>
-      <c r="H3">
-        <v>493.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="P5">
+        <v>494</v>
+      </c>
+      <c r="Q5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="L6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="N6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="O6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="P6" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>73</v>
+      </c>
+      <c r="L10">
+        <v>82</v>
+      </c>
+      <c r="M10">
+        <v>87</v>
+      </c>
+      <c r="N10">
+        <v>98</v>
+      </c>
+      <c r="O10">
+        <v>110</v>
+      </c>
+      <c r="P10">
+        <v>123</v>
+      </c>
+      <c r="Q10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>523</v>
+      </c>
+      <c r="D15">
+        <v>587</v>
+      </c>
+      <c r="E15">
+        <v>659</v>
+      </c>
+      <c r="F15">
+        <v>698</v>
+      </c>
+      <c r="G15">
+        <v>784</v>
+      </c>
+      <c r="H15">
+        <v>880</v>
+      </c>
+      <c r="I15">
+        <v>988</v>
+      </c>
+      <c r="J15">
+        <v>1047</v>
+      </c>
+      <c r="K15">
+        <v>1175</v>
+      </c>
+      <c r="L15">
+        <v>1319</v>
+      </c>
+      <c r="M15">
+        <v>1397</v>
+      </c>
+      <c r="N15">
+        <v>1568</v>
+      </c>
+      <c r="O15">
+        <v>1760</v>
+      </c>
+      <c r="P15">
+        <v>1975</v>
+      </c>
+      <c r="Q15">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2">
+        <v>23</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Report/ECE 3130 Project Block Diagram Spreadsheet.xlsx
+++ b/Report/ECE 3130 Project Block Diagram Spreadsheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28824"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tennesseetechuniversity-my.sharepoint.com/personal/clwilson47_tntech_edu/Documents/ECE 3130 - Microcomp/Project/Project Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="8_{170BBFF8-ACCA-4FFC-9C63-3BBFF8D2404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B7C9AD6-81E3-4120-997D-992C367DF9C6}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="8_{170BBFF8-ACCA-4FFC-9C63-3BBFF8D2404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF66338-188F-4EEF-9D61-6B8E7EAC84E6}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{1EA45C2D-A7E7-487B-A87F-8051FC36B03D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EA45C2D-A7E7-487B-A87F-8051FC36B03D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+  <si>
+    <t>SW2 Adjusts the Octaves Used</t>
+  </si>
+  <si>
+    <t>(Note: C3 and C5 repeat because we are using octaves)</t>
+  </si>
+  <si>
+    <t>Note: keypad button A (K3) remains unused with dummy value "0" in matrix</t>
+  </si>
+  <si>
+    <t>By cycling through a matrix in our code</t>
+  </si>
+  <si>
+    <t>Row 1</t>
+  </si>
+  <si>
+    <t>Input Buttons (Keypad)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
   <si>
     <t>Frequency</t>
   </si>
@@ -44,6 +77,27 @@
     <t>Buzzer Sound Output (Musical Notes)</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
@@ -65,48 +119,12 @@
     <t>B4</t>
   </si>
   <si>
-    <t>Input Buttons (Keypad)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
+    <t>Row 2</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
@@ -149,6 +167,9 @@
     <t>B2</t>
   </si>
   <si>
+    <t>Row 3</t>
+  </si>
+  <si>
     <t>D5</t>
   </si>
   <si>
@@ -191,24 +212,6 @@
     <t>C7</t>
   </si>
   <si>
-    <t>(Note: C3 and C5 repeat because we are using octaves)</t>
-  </si>
-  <si>
-    <t>SW2 Adjusts the Octaves Used</t>
-  </si>
-  <si>
-    <t>Row 1</t>
-  </si>
-  <si>
-    <t>Row 2</t>
-  </si>
-  <si>
-    <t>Row 3</t>
-  </si>
-  <si>
-    <t>By cycling through a matrix in our code</t>
-  </si>
-  <si>
     <t>External LEDs</t>
   </si>
   <si>
@@ -224,46 +227,46 @@
     <t>CN7</t>
   </si>
   <si>
+    <t xml:space="preserve">Pin Connection </t>
+  </si>
+  <si>
+    <t>PC_3</t>
+  </si>
+  <si>
+    <t>PC_2</t>
+  </si>
+  <si>
+    <t>PC_11</t>
+  </si>
+  <si>
+    <t>PC_10</t>
+  </si>
+  <si>
+    <t>PA_14</t>
+  </si>
+  <si>
+    <t>PC_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Buzzers </t>
+  </si>
+  <si>
+    <t>Buzzer Number</t>
+  </si>
+  <si>
+    <t>Breadboard Number</t>
+  </si>
+  <si>
+    <t>Pin Block</t>
+  </si>
+  <si>
+    <t>CN10</t>
+  </si>
+  <si>
     <t>CN8</t>
   </si>
   <si>
     <t>CN9</t>
-  </si>
-  <si>
-    <t>CN10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin Connection </t>
-  </si>
-  <si>
-    <t>PC_3</t>
-  </si>
-  <si>
-    <t>PC_2</t>
-  </si>
-  <si>
-    <t>PC_15</t>
-  </si>
-  <si>
-    <t>PC_14</t>
-  </si>
-  <si>
-    <t>PA_14</t>
-  </si>
-  <si>
-    <t>PC_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Buzzers </t>
-  </si>
-  <si>
-    <t>Breadboard Number</t>
-  </si>
-  <si>
-    <t>Buzzer Number</t>
-  </si>
-  <si>
-    <t>Pin Block</t>
   </si>
   <si>
     <t>PC_9</t>
@@ -282,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,7 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -385,6 +387,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +410,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,27 +731,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE8B465-3894-4FDA-9F0C-490F52D2FC28}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="137" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>52</v>
+    <row r="1" spans="1:18" ht="15.6">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="E2" s="2"/>
       <c r="I2" s="2"/>
@@ -758,66 +762,62 @@
       <c r="N2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>53</v>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>8</v>
+      </c>
+      <c r="I4" s="13">
+        <v>5</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="13">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="M4" s="13">
+        <v>6</v>
+      </c>
+      <c r="N4" s="13">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="O4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C5">
         <v>131</v>
@@ -844,7 +844,7 @@
         <v>262</v>
       </c>
       <c r="K5">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L5">
         <v>330</v>
@@ -865,120 +865,112 @@
         <v>523</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:18">
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>8</v>
+      </c>
+      <c r="I9" s="13">
+        <v>5</v>
+      </c>
+      <c r="J9" s="13">
         <v>2</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="13">
+        <v>9</v>
+      </c>
+      <c r="M9" s="13">
+        <v>6</v>
+      </c>
+      <c r="N9" s="13">
         <v>3</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="O9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="P9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="Q9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>9</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C10">
         <v>33</v>
@@ -1026,121 +1018,113 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13">
+        <v>4</v>
+      </c>
+      <c r="F14" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>8</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5</v>
+      </c>
+      <c r="J14" s="13">
+        <v>2</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="13">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
+      <c r="M14" s="13">
+        <v>6</v>
+      </c>
+      <c r="N14" s="13">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="O14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K14">
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>9</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C15">
         <v>523</v>
@@ -1188,65 +1172,64 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:18">
       <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="J16" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1267,76 +1250,76 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="6">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>5</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1344,13 +1327,13 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1359,9 +1342,9 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1378,9 +1361,9 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
@@ -1397,40 +1380,40 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
